--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2216.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2216.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.267432568271669</v>
+        <v>0.9488468170166016</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.070756196975708</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.14568042755127</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.202033519744873</v>
       </c>
       <c r="E1">
-        <v>0.8042981437497029</v>
+        <v>1.006226897239685</v>
       </c>
     </row>
   </sheetData>
